--- a/biology/Microbiologie/Acidobacteriota/Acidobacteriota.xlsx
+++ b/biology/Microbiologie/Acidobacteriota/Acidobacteriota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Acidobacteriota sont un embranchement (ou phylum, ou encore division) du règne des Bacteria. Son nom provient de Acidobacterium qui est le genre type de cet embranchement[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Acidobacteriota sont un embranchement (ou phylum, ou encore division) du règne des Bacteria. Son nom provient de Acidobacterium qui est le genre type de cet embranchement.
 Comme leur nom l'indique, elles sont acidophiles. Bien que très peu étudiée, cette division contribue particulièrement aux écosystèmes.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet embranchement est proposé dès 2010 par J.C. Thrash et J.D. Coates dans la deuxième édition du Bergey's Manual of Systematic Bacteriology sous le nom de « Acidobacteria »[1]. Ce n'est qu'en 2021 qu'il est publié de manière valide par Oren et Garrity[2] après un renommage conforme au code de nomenclature bactérienne (le nom de l'embranchement devant être dérivé de celui de son genre type, en l'occurrence Acidobacterium, par adjonction du suffixe -ota conformément à une décision de l'ICSP en 2021[3]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet embranchement est proposé dès 2010 par J.C. Thrash et J.D. Coates dans la deuxième édition du Bergey's Manual of Systematic Bacteriology sous le nom de « Acidobacteria ». Ce n'est qu'en 2021 qu'il est publié de manière valide par Oren et Garrity après un renommage conforme au code de nomenclature bactérienne (le nom de l'embranchement devant être dérivé de celui de son genre type, en l'occurrence Acidobacterium, par adjonction du suffixe -ota conformément à une décision de l'ICSP en 2021).
 </t>
         </is>
       </c>
@@ -545,14 +559,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Classes validement publiées
-Selon la LPSN  (10 novembre 2022)[4] :
+          <t>Classes validement publiées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (10 novembre 2022) :
 Blastocatellia Pascual et al. 2016
 Holophagae Fukunaga et al. 2008
 Thermoanaerobaculia Dedysh &amp; Yilmaz 2018
-Vicinamibacteria Dedysh &amp; Yilmaz 2018
-Classes en attente de publication valide
-Selon la LPSN  (10 novembre 2022)[4] :
+Vicinamibacteria Dedysh &amp; Yilmaz 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Acidobacteriota</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acidobacteriota</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste de classes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classes en attente de publication valide</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (10 novembre 2022) :
 Acidobacteriia Thrash &amp; Coates 2010
 Candidatus Polarisedimenticolia Flieder et al. 2021</t>
         </is>
